--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="학생성적정보 " sheetId="2" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="424">
   <si>
     <t>국어국문</t>
   </si>
@@ -1259,9 +1261,6 @@
     <t>강원도 속초시 대포동 956-5</t>
   </si>
   <si>
-    <t>010-4192-1470</t>
-  </si>
-  <si>
     <t>강이찬</t>
   </si>
   <si>
@@ -1269,9 +1268,6 @@
   </si>
   <si>
     <t>경남 김해시 어방동 1088-7</t>
-  </si>
-  <si>
-    <t>010-4682-9422</t>
   </si>
   <si>
     <t>갈한수</t>
@@ -1303,6 +1299,62 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4192-1470</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4682-9422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1659,38 +1711,41 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" t="s">
         <v>408</v>
       </c>
-      <c r="C1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
@@ -1699,2085 +1754,5380 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" t="s">
         <v>399</v>
       </c>
-      <c r="C3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>397</v>
+      <c r="B3">
+        <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>393</v>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>389</v>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>385</v>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>381</v>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>377</v>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>373</v>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>369</v>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>365</v>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>361</v>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>357</v>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>353</v>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>349</v>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>345</v>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>341</v>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>337</v>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>333</v>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>329</v>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>325</v>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>321</v>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>317</v>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>313</v>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>309</v>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>305</v>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>301</v>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>297</v>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>293</v>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>289</v>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>285</v>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>281</v>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>273</v>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>269</v>
+      <c r="B35">
+        <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>265</v>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>261</v>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>257</v>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>253</v>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C40" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>249</v>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>245</v>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>241</v>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>237</v>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>233</v>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>229</v>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>225</v>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>221</v>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>217</v>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>213</v>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B50" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>209</v>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>205</v>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>201</v>
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>197</v>
+      <c r="B53">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>193</v>
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>189</v>
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>185</v>
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>181</v>
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B58" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>177</v>
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>173</v>
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>169</v>
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>165</v>
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>161</v>
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>157</v>
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>153</v>
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>149</v>
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F65" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>145</v>
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>141</v>
+      <c r="B67">
+        <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>137</v>
+      <c r="B68">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>133</v>
+      <c r="B69">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>129</v>
+      <c r="B70">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>125</v>
+      <c r="B71">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>121</v>
+      <c r="B72">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>117</v>
+      <c r="B73">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>113</v>
+      <c r="B74">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>109</v>
+      <c r="B75">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>105</v>
+      <c r="B76">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F76" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>101</v>
+      <c r="B77">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>97</v>
+      <c r="B78">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>93</v>
+      <c r="B79">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>89</v>
+      <c r="B80">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>85</v>
+      <c r="B81">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>81</v>
+      <c r="B82">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>77</v>
+      <c r="B83">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>73</v>
+      <c r="B84">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>69</v>
+      <c r="B85">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="3"/>
         <v>66</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>39</v>
+      <c r="F86">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>61</v>
+      <c r="B87">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>57</v>
+      <c r="B88">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F88" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>53</v>
+      <c r="B89">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E90">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>44</v>
+      <c r="B91">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>40</v>
+      <c r="B92">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>35</v>
+      <c r="B93">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>31</v>
+      <c r="B94">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B95" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>27</v>
+      <c r="B95">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>23</v>
+      <c r="B96">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
+      <c r="B97">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>15</v>
+      <c r="B98">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
+      <c r="B99">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>6</v>
+      <c r="B100">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1</v>
+      <c r="B101">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
     <sheet name="학생성적정보 " sheetId="2" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학과정보" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="445">
   <si>
     <t>국어국문</t>
   </si>
@@ -1355,6 +1355,90 @@
   </si>
   <si>
     <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1749,13 +1833,13 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1774,13 +1858,13 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>409</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1799,13 +1883,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1824,13 +1908,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1855,7 +1939,7 @@
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1880,7 +1964,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1905,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1930,7 +2014,7 @@
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1949,13 +2033,13 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1974,13 +2058,13 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1999,13 +2083,13 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2030,7 +2114,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2055,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2080,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2099,13 +2183,13 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2130,7 +2214,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2149,13 +2233,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2174,13 +2258,13 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2205,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2224,13 +2308,13 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2255,7 +2339,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2274,13 +2358,13 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2299,13 +2383,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2324,13 +2408,13 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2349,13 +2433,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2374,13 +2458,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2399,13 +2483,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2424,13 +2508,13 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2455,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2474,13 +2558,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2499,13 +2583,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2524,13 +2608,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2555,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2580,7 +2664,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2599,13 +2683,13 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2630,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2649,13 +2733,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2674,13 +2758,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2705,7 +2789,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2724,13 +2808,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2749,13 +2833,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2774,13 +2858,13 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2799,13 +2883,13 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2824,13 +2908,13 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2849,13 +2933,13 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2874,13 +2958,13 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2899,13 +2983,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2924,13 +3008,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2949,13 +3033,13 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2974,13 +3058,13 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2999,13 +3083,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3024,13 +3108,13 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3055,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3074,13 +3158,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3099,13 +3183,13 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3124,13 +3208,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3149,13 +3233,13 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3174,13 +3258,13 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3199,13 +3283,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3230,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3249,13 +3333,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3274,13 +3358,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3299,13 +3383,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3324,13 +3408,13 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3349,13 +3433,13 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3374,13 +3458,13 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3399,13 +3483,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3430,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3449,13 +3533,13 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3480,7 +3564,7 @@
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3499,13 +3583,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3524,13 +3608,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3549,13 +3633,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3580,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3605,7 +3689,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3624,13 +3708,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3649,13 +3733,13 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3674,13 +3758,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3699,13 +3783,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3730,7 +3814,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3749,13 +3833,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3774,13 +3858,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3799,13 +3883,13 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3824,13 +3908,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3849,13 +3933,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3880,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3899,13 +3983,13 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3924,13 +4008,13 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3949,13 +4033,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3974,13 +4058,13 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3999,13 +4083,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4030,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4049,13 +4133,13 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4074,13 +4158,13 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4099,13 +4183,13 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4124,13 +4208,13 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4155,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4174,13 +4258,13 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4199,13 +4283,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4230,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4285,23 +4369,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,23 +4394,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4335,23 +4419,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,23 +4444,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4385,23 +4469,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
         <v>99</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4410,23 +4494,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4435,23 +4519,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,23 +4544,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
         <v>79</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4485,23 +4569,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4510,23 +4594,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4535,23 +4619,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,23 +4644,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,23 +4669,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4610,23 +4694,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4635,23 +4719,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,23 +4744,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4685,23 +4769,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4710,23 +4794,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4735,23 +4819,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
-      </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,23 +4844,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4785,23 +4869,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4810,23 +4894,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4835,23 +4919,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,23 +4944,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4885,23 +4969,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
         <v>94</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4910,23 +4994,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4935,23 +5019,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,23 +5044,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4985,23 +5069,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5010,23 +5094,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
         <v>67</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5035,23 +5119,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5060,23 +5144,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5085,19 +5169,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
@@ -5110,23 +5194,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
         <v>87</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5135,23 +5219,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,11 +5244,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
@@ -5172,11 +5256,11 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5185,23 +5269,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5210,23 +5294,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,19 +5323,19 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5260,23 +5344,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5285,23 +5369,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5310,23 +5394,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5335,23 +5419,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,23 +5444,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5385,23 +5469,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5410,23 +5494,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5435,23 +5519,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5460,23 +5544,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5485,23 +5569,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5510,23 +5594,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5535,23 +5619,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,23 +5644,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="2"/>
         <v>73</v>
       </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5585,23 +5669,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5610,23 +5694,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5635,23 +5719,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5660,23 +5744,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5685,23 +5769,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5710,23 +5794,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5735,23 +5819,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,15 +5844,15 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
@@ -5776,7 +5860,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5785,23 +5869,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
         <v>89</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5810,23 +5894,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5835,23 +5919,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,11 +5944,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
@@ -5872,11 +5956,11 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5889,19 +5973,19 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5910,23 +5994,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5935,7 +6019,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
@@ -5943,15 +6027,15 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5960,23 +6044,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5985,23 +6069,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6010,23 +6094,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6035,23 +6119,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,23 +6144,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6085,23 +6169,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
         <v>90</v>
       </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6110,23 +6194,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6135,23 +6219,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,23 +6244,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6185,23 +6269,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6210,23 +6294,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6235,23 +6319,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,23 +6344,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6285,23 +6369,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6310,23 +6394,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6335,23 +6419,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6360,23 +6444,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6385,23 +6469,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6410,23 +6494,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6435,23 +6519,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,23 +6544,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6485,23 +6569,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6510,23 +6594,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6535,23 +6619,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6560,23 +6644,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6585,23 +6669,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6610,23 +6694,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6635,23 +6719,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6660,23 +6744,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6685,23 +6769,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6710,23 +6794,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6735,23 +6819,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6760,23 +6844,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6788,10 +6872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6800,78 +6884,151 @@
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062" &amp; TEXT(RANDBETWEEN(0,9999999),"-000-0000")</f>
+        <v>062-975-3449</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062" &amp; TEXT(RANDBETWEEN(0,9999999),"-000-0000")</f>
+        <v>062-892-4944</v>
+      </c>
+      <c r="F3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-361-2799</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-033-9389</v>
+      </c>
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-753-6205</v>
+      </c>
+      <c r="F6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
